--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -2,28 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="249"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Style</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Color</t>
   </si>
   <si>
@@ -33,28 +44,28 @@
     <t>SzRange</t>
   </si>
   <si>
-    <t>Heather Gray</t>
+    <t>FinalContent</t>
+  </si>
+  <si>
+    <t>CareInstr</t>
   </si>
   <si>
     <t>XS-XL</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>FinalContent</t>
-  </si>
-  <si>
-    <t>CareInstr</t>
-  </si>
-  <si>
-    <t>Breeze Dress</t>
-  </si>
-  <si>
-    <t>96% Cotton, 4% Spandex</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+    <t>3745</t>
+  </si>
+  <si>
+    <t>High Legging</t>
+  </si>
+  <si>
+    <t>Ganache</t>
+  </si>
+  <si>
+    <t>72% Rayon, 24% Nylon, 4% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Steam iron on the reverse side if needed. &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -63,9 +74,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -114,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -384,92 +397,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -484,73 +412,67 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5618</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>119</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -50,22 +50,22 @@
     <t>CareInstr</t>
   </si>
   <si>
-    <t>XS-XL</t>
-  </si>
-  <si>
-    <t>3745</t>
-  </si>
-  <si>
-    <t>High Legging</t>
-  </si>
-  <si>
-    <t>Ganache</t>
-  </si>
-  <si>
-    <t>72% Rayon, 24% Nylon, 4% Spandex</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Steam iron on the reverse side if needed. &lt;/div&gt;</t>
+    <t>3841</t>
+  </si>
+  <si>
+    <t>Fringe Poncho</t>
+  </si>
+  <si>
+    <t>Poinsettia Red</t>
+  </si>
+  <si>
+    <t>XS/S-M/L</t>
+  </si>
+  <si>
+    <t>51% Cotton, 35% Viscose, 13% Nylon, 1% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,19 +451,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -50,22 +50,22 @@
     <t>CareInstr</t>
   </si>
   <si>
-    <t>3841</t>
-  </si>
-  <si>
-    <t>Fringe Poncho</t>
-  </si>
-  <si>
-    <t>Poinsettia Red</t>
-  </si>
-  <si>
-    <t>XS/S-M/L</t>
-  </si>
-  <si>
-    <t>51% Cotton, 35% Viscose, 13% Nylon, 1% Spandex</t>
-  </si>
-  <si>
     <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>3842</t>
+  </si>
+  <si>
+    <t>Luxe Turtleneck</t>
+  </si>
+  <si>
+    <t>Winter White</t>
+  </si>
+  <si>
+    <t>XS-XL</t>
+  </si>
+  <si>
+    <t>51% Cotton, 30% Polyester, 19% Nylon</t>
   </si>
 </sst>
 </file>
@@ -451,25 +451,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3">
-        <v>189</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -460,7 +460,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -460,7 +460,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -460,7 +460,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -50,22 +50,22 @@
     <t>CareInstr</t>
   </si>
   <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>3842</t>
-  </si>
-  <si>
-    <t>Luxe Turtleneck</t>
-  </si>
-  <si>
-    <t>Winter White</t>
-  </si>
-  <si>
-    <t>XS-XL</t>
-  </si>
-  <si>
-    <t>51% Cotton, 30% Polyester, 19% Nylon</t>
+    <t>3846</t>
+  </si>
+  <si>
+    <t>Windchill Wrap</t>
+  </si>
+  <si>
+    <t>Winter Stripe</t>
+  </si>
+  <si>
+    <t>XS/S-M/L</t>
+  </si>
+  <si>
+    <t>51% Cotton, 44% Acrylic, 5% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Dry clean for best results. Can be machine washed in a mesh bag in cold water on the delicate cycle. Only non-chlorine bleach. Lay flat to dry. Steam iron only if needed.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -123,11 +123,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -412,7 +418,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,26 +456,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6">
+        <v>139</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,22 +50,22 @@
     <t>CareInstr</t>
   </si>
   <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>3842</t>
-  </si>
-  <si>
-    <t>Luxe Turtleneck</t>
-  </si>
-  <si>
-    <t>Winter White</t>
-  </si>
-  <si>
     <t>XS-XL</t>
   </si>
   <si>
-    <t>51% Cotton, 30% Polyester, 19% Nylon</t>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>Decked Out Dress</t>
+  </si>
+  <si>
+    <t>Twinkle Print</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Belt Self: 100% Polyester Belt Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Do not press with flat iron. Can be dry cleaned.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -123,11 +123,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -412,7 +418,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,26 +456,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="6">
+        <v>124</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -2,55 +2,140 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="249"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Style</t>
   </si>
   <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>SzRange</t>
+  </si>
+  <si>
+    <t>XS-XL</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>SzRange</t>
-  </si>
-  <si>
     <t>FinalContent</t>
   </si>
   <si>
     <t>CareInstr</t>
   </si>
   <si>
-    <t>3846</t>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>M'Leggings</t>
+  </si>
+  <si>
+    <t>XS/S-M/L</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>100% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Can be dry cleaned. &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>Decked Out Dress</t>
+  </si>
+  <si>
+    <t>Twinkle Print</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Belt Self: 100% Polyester Belt Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Do not press with flat iron. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Cozy Cowl</t>
+  </si>
+  <si>
+    <t>Midnight and Black</t>
+  </si>
+  <si>
+    <t>96% Rayon, 4% Spandex</t>
+  </si>
+  <si>
+    <t>Fireside Hoodie</t>
+  </si>
+  <si>
+    <t>Deep Forest</t>
+  </si>
+  <si>
+    <t>3871</t>
+  </si>
+  <si>
+    <t>Snap Cowl</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>65% Modal, 32% Cotton, 3% Spandex</t>
+  </si>
+  <si>
+    <t>Snap Blouse</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash separately, inside out, in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Cool iron on the reverse side if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Going Out Top</t>
+  </si>
+  <si>
+    <t>Party Plaid</t>
+  </si>
+  <si>
+    <t>Dressed-Up Shrug</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Self: 62% Cotton, 38% Acrylic Sleeve: 72% Acrylic, 28% Polyester Sleeve Lining: 100% Rayon</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Do not steam or iron faux fur.&lt;/div&gt;</t>
   </si>
   <si>
     <t>Windchill Wrap</t>
@@ -59,13 +144,37 @@
     <t>Winter Stripe</t>
   </si>
   <si>
-    <t>XS/S-M/L</t>
-  </si>
-  <si>
     <t>51% Cotton, 44% Acrylic, 5% Polyester</t>
   </si>
   <si>
     <t>&lt;div&gt;Dry clean for best results. Can be machine washed in a mesh bag in cold water on the delicate cycle. Only non-chlorine bleach. Lay flat to dry. Steam iron only if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Victoria Blouse</t>
+  </si>
+  <si>
+    <t>Flourish Print</t>
+  </si>
+  <si>
+    <t>Purr Blouse</t>
+  </si>
+  <si>
+    <t>Emerald Skin Print</t>
+  </si>
+  <si>
+    <t>3850</t>
+  </si>
+  <si>
+    <t>Holiday Blazer</t>
+  </si>
+  <si>
+    <t>Holiday Plaid</t>
+  </si>
+  <si>
+    <t>96% Cotton, 4% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water, on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -74,11 +183,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -123,17 +230,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -403,7 +507,92 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -415,70 +604,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>3869</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3870</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3857</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>3864</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>3865</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>3843</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>3846</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
         <v>139</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>3861</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>3863</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3">
+        <v>169</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Style</t>
   </si>
@@ -66,6 +66,123 @@
   </si>
   <si>
     <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Do not press with flat iron. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Cozy Cowl</t>
+  </si>
+  <si>
+    <t>Midnight and Black</t>
+  </si>
+  <si>
+    <t>96% Rayon, 4% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Can be dry cleaned. &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Fireside Hoodie</t>
+  </si>
+  <si>
+    <t>Deep Forest</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>3871</t>
+  </si>
+  <si>
+    <t>Snap Cowl</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>65% Modal, 32% Cotton, 3% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>M'Leggings</t>
+  </si>
+  <si>
+    <t>Snap Blouse</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>100% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash separately, inside out, in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Cool iron on the reverse side if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Going Out Top</t>
+  </si>
+  <si>
+    <t>Party Plaid</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Dressed-Up Shrug</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Self: 62% Cotton, 38% Acrylic Sleeve: 72% Acrylic, 28% Polyester Sleeve Lining: 100% Rayon</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Do not steam or iron faux fur.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Windchill Wrap</t>
+  </si>
+  <si>
+    <t>Winter Stripe</t>
+  </si>
+  <si>
+    <t>XS/S-M/L</t>
+  </si>
+  <si>
+    <t>51% Cotton, 44% Acrylic, 5% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Dry clean for best results. Can be machine washed in a mesh bag in cold water on the delicate cycle. Only non-chlorine bleach. Lay flat to dry. Steam iron only if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Victoria Blouse</t>
+  </si>
+  <si>
+    <t>Purr Blouse</t>
+  </si>
+  <si>
+    <t>Flourish Print</t>
+  </si>
+  <si>
+    <t>Emerald Skin Print</t>
+  </si>
+  <si>
+    <t>3850</t>
+  </si>
+  <si>
+    <t>Holiday Blazer</t>
+  </si>
+  <si>
+    <t>Holiday Plaid</t>
+  </si>
+  <si>
+    <t>96% Cotton, 4% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water, on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -123,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -134,6 +251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -415,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +598,259 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>3869</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3870</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6">
+        <v>84</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6">
+        <v>94</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3857</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6">
+        <v>66</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3864</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6">
+        <v>62</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>3865</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>3843</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6">
+        <v>78</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>3846</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6">
+        <v>108</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>3861</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6">
+        <v>69</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>3863</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6">
+        <v>66</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6">
+        <v>129</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Style</t>
   </si>
@@ -45,45 +45,9 @@
     <t>CareInstr</t>
   </si>
   <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>M'Leggings</t>
-  </si>
-  <si>
-    <t>XS/S-M/L</t>
-  </si>
-  <si>
-    <t>Self: 100% Polyester Lining: 100% Polyester</t>
-  </si>
-  <si>
-    <t>100% Polyester</t>
-  </si>
-  <si>
     <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Can be dry cleaned. &lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>3875</t>
-  </si>
-  <si>
-    <t>Decked Out Dress</t>
-  </si>
-  <si>
-    <t>Twinkle Print</t>
-  </si>
-  <si>
-    <t>Self: 100% Polyester Belt Self: 100% Polyester Belt Lining: 100% Polyester</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Do not press with flat iron. Can be dry cleaned.&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Cozy Cowl</t>
   </si>
   <si>
@@ -91,90 +55,6 @@
   </si>
   <si>
     <t>96% Rayon, 4% Spandex</t>
-  </si>
-  <si>
-    <t>Fireside Hoodie</t>
-  </si>
-  <si>
-    <t>Deep Forest</t>
-  </si>
-  <si>
-    <t>3871</t>
-  </si>
-  <si>
-    <t>Snap Cowl</t>
-  </si>
-  <si>
-    <t>Storm</t>
-  </si>
-  <si>
-    <t>65% Modal, 32% Cotton, 3% Spandex</t>
-  </si>
-  <si>
-    <t>Snap Blouse</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Machine wash separately, inside out, in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Cool iron on the reverse side if needed. Can be dry cleaned.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Going Out Top</t>
-  </si>
-  <si>
-    <t>Party Plaid</t>
-  </si>
-  <si>
-    <t>Dressed-Up Shrug</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Self: 62% Cotton, 38% Acrylic Sleeve: 72% Acrylic, 28% Polyester Sleeve Lining: 100% Rayon</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Do not steam or iron faux fur.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Windchill Wrap</t>
-  </si>
-  <si>
-    <t>Winter Stripe</t>
-  </si>
-  <si>
-    <t>51% Cotton, 44% Acrylic, 5% Polyester</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Dry clean for best results. Can be machine washed in a mesh bag in cold water on the delicate cycle. Only non-chlorine bleach. Lay flat to dry. Steam iron only if needed.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Victoria Blouse</t>
-  </si>
-  <si>
-    <t>Flourish Print</t>
-  </si>
-  <si>
-    <t>Purr Blouse</t>
-  </si>
-  <si>
-    <t>Emerald Skin Print</t>
-  </si>
-  <si>
-    <t>3850</t>
-  </si>
-  <si>
-    <t>Holiday Blazer</t>
-  </si>
-  <si>
-    <t>Holiday Plaid</t>
-  </si>
-  <si>
-    <t>96% Cotton, 4% Spandex</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water, on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -604,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -645,279 +525,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
+      <c r="A2" s="4">
+        <v>3869</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>3869</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3870</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3">
-        <v>119</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3857</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>3864</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>3865</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>3843</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>3846</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3">
-        <v>139</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>3861</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>3863</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3">
-        <v>169</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Style</t>
   </si>
@@ -55,6 +55,123 @@
   </si>
   <si>
     <t>96% Rayon, 4% Spandex</t>
+  </si>
+  <si>
+    <t>Dressed-Up Shrug</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Self: 62% Cotton, 38% Acrylic Sleeve: 72% Acrylic, 28% Polyester Sleeve Lining: 100% Rayon</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Do not steam or iron faux fur.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Windchill Wrap</t>
+  </si>
+  <si>
+    <t>Winter Stripe</t>
+  </si>
+  <si>
+    <t>XS/S-M/L</t>
+  </si>
+  <si>
+    <t>51% Cotton, 44% Acrylic, 5% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Dry clean for best results. Can be machine washed in a mesh bag in cold water on the delicate cycle. Only non-chlorine bleach. Lay flat to dry. Steam iron only if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Holiday Blazer</t>
+  </si>
+  <si>
+    <t>Holiday Plaid</t>
+  </si>
+  <si>
+    <t>96% Cotton, 4% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water, on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>M'Leggings</t>
+  </si>
+  <si>
+    <t>Deep Forest</t>
+  </si>
+  <si>
+    <t>Victoria Blouse</t>
+  </si>
+  <si>
+    <t>Flourish Print</t>
+  </si>
+  <si>
+    <t>100% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Purr Blouse</t>
+  </si>
+  <si>
+    <t>Emerald Skin Print</t>
+  </si>
+  <si>
+    <t>Snap Blouse</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash separately, inside out, in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Cool iron on the reverse side if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Going Out Top</t>
+  </si>
+  <si>
+    <t>Party Plaid</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>Fireside Hoodie</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>3871</t>
+  </si>
+  <si>
+    <t>Snap Cowl</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>65% Modal, 32% Cotton, 3% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>Decked Out Dress</t>
+  </si>
+  <si>
+    <t>Twinkle Print</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Belt Self: 100% Polyester Belt Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Do not press with flat iron. Can be dry cleaned.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -484,17 +601,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" customWidth="1"/>
@@ -526,25 +643,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>3843</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>3846</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3850</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3857</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3861</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>3863</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>3864</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>3865</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>3869</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D10" s="3">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>3870</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Style</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>XS-XL</t>
-  </si>
-  <si>
-    <t>3875</t>
   </si>
   <si>
     <t>Decked Out Dress</t>
@@ -538,7 +535,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,14 +573,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>3875</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="6">
         <v>124</v>
@@ -592,10 +589,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,10 +600,10 @@
         <v>3869</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>72</v>
@@ -615,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,10 +623,10 @@
         <v>3870</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="6">
         <v>84</v>
@@ -638,21 +635,21 @@
         <v>7</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="6">
         <v>94</v>
@@ -661,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,10 +669,10 @@
         <v>3857</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <v>66</v>
@@ -684,10 +681,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,10 +692,10 @@
         <v>3864</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="6">
         <v>62</v>
@@ -707,10 +704,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,10 +715,10 @@
         <v>3865</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="6">
         <v>69</v>
@@ -730,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,10 +738,10 @@
         <v>3843</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D9" s="6">
         <v>78</v>
@@ -753,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,22 +761,22 @@
         <v>3846</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="6">
         <v>108</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,10 +784,10 @@
         <v>3861</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6">
         <v>69</v>
@@ -799,10 +796,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,10 +807,10 @@
         <v>3863</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6">
         <v>66</v>
@@ -822,21 +819,21 @@
         <v>7</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="6">
         <v>129</v>
@@ -845,10 +842,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Style</t>
   </si>
@@ -86,9 +86,6 @@
     <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
   </si>
   <si>
-    <t>3871</t>
-  </si>
-  <si>
     <t>Snap Cowl</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>Emerald Skin Print</t>
-  </si>
-  <si>
-    <t>3850</t>
   </si>
   <si>
     <t>Holiday Blazer</t>
@@ -244,11 +238,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -532,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,13 +541,13 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15" style="8" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +557,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -572,283 +570,336 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>3843</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="9">
+        <v>99</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <f>SUM(A2:G2)</f>
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>3846</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="9">
+        <v>139</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <f>SUM(A3:G3)</f>
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3850</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9">
+        <v>169</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="8">
+        <f>SUM(A4:G4)</f>
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3857</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9">
+        <v>84</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <f>SUM(A5:G5)</f>
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3861</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9">
+        <v>69</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <f>SUM(A6:G6)</f>
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3863</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="9">
+        <v>89</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <f>SUM(A7:G7)</f>
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>3864</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9">
+        <v>84</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <f>SUM(A8:G8)</f>
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>3865</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>89</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <f>SUM(A9:G9)</f>
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>3869</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8">
+        <v>94</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <f>SUM(A10:G10)</f>
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>3870</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9">
+        <v>109</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(A11:G11)</f>
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>3871</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9">
+        <v>119</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(A12:G12)</f>
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>3875</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
-        <v>124</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D13" s="9">
+        <v>159</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>3869</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>3870</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6">
-        <v>84</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6">
-        <v>94</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>3857</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6">
-        <v>66</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>3864</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6">
-        <v>62</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>3865</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6">
-        <v>69</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>3843</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6">
-        <v>78</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>3846</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="6">
-        <v>108</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>3861</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="6">
-        <v>69</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>3863</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6">
-        <v>66</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6">
-        <v>129</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>50</v>
+      <c r="H13">
+        <f>SUM(A13:G13)</f>
+        <v>4034</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Style</t>
   </si>
@@ -53,6 +53,126 @@
     <t>XS-XL</t>
   </si>
   <si>
+    <t>Cozy Cowl</t>
+  </si>
+  <si>
+    <t>Midnight and Black</t>
+  </si>
+  <si>
+    <t>96% Rayon, 4% Spandex</t>
+  </si>
+  <si>
+    <t>Dressed-Up Shrug</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Self: 62% Cotton, 38% Acrylic Sleeve: 72% Acrylic, 28% Polyester Sleeve Lining: 100% Rayon</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Do not steam or iron faux fur.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Windchill Wrap</t>
+  </si>
+  <si>
+    <t>Winter Stripe</t>
+  </si>
+  <si>
+    <t>XS/S-M/L</t>
+  </si>
+  <si>
+    <t>51% Cotton, 44% Acrylic, 5% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Dry clean for best results. Can be machine washed in a mesh bag in cold water on the delicate cycle. Only non-chlorine bleach. Lay flat to dry. Steam iron only if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>3850</t>
+  </si>
+  <si>
+    <t>Holiday Blazer</t>
+  </si>
+  <si>
+    <t>Holiday Plaid</t>
+  </si>
+  <si>
+    <t>96% Cotton, 4% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water, on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>M'Leggings</t>
+  </si>
+  <si>
+    <t>Deep Forest</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Can be dry cleaned. &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Victoria Blouse</t>
+  </si>
+  <si>
+    <t>Flourish Print</t>
+  </si>
+  <si>
+    <t>100% Polyester</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Purr Blouse</t>
+  </si>
+  <si>
+    <t>Emerald Skin Print</t>
+  </si>
+  <si>
+    <t>Snap Blouse</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash separately, inside out, in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Cool iron on the reverse side if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Going Out Top</t>
+  </si>
+  <si>
+    <t>Party Plaid</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>Fireside Hoodie</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>3871</t>
+  </si>
+  <si>
+    <t>Snap Cowl</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>65% Modal, 32% Cotton, 3% Spandex</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>3875</t>
+  </si>
+  <si>
     <t>Decked Out Dress</t>
   </si>
   <si>
@@ -63,123 +183,6 @@
   </si>
   <si>
     <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Do not press with flat iron. Can be dry cleaned.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Cozy Cowl</t>
-  </si>
-  <si>
-    <t>Midnight and Black</t>
-  </si>
-  <si>
-    <t>96% Rayon, 4% Spandex</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Can be dry cleaned. &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Fireside Hoodie</t>
-  </si>
-  <si>
-    <t>Deep Forest</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>3871</t>
-  </si>
-  <si>
-    <t>Snap Cowl</t>
-  </si>
-  <si>
-    <t>Storm</t>
-  </si>
-  <si>
-    <t>65% Modal, 32% Cotton, 3% Spandex</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>M'Leggings</t>
-  </si>
-  <si>
-    <t>Snap Blouse</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>100% Polyester</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Machine wash separately, inside out, in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Cool iron on the reverse side if needed. Can be dry cleaned.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Going Out Top</t>
-  </si>
-  <si>
-    <t>Party Plaid</t>
-  </si>
-  <si>
-    <t>Self: 100% Polyester Lining: 100% Polyester</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Dressed-Up Shrug</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Self: 62% Cotton, 38% Acrylic Sleeve: 72% Acrylic, 28% Polyester Sleeve Lining: 100% Rayon</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Do not steam or iron faux fur.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Windchill Wrap</t>
-  </si>
-  <si>
-    <t>Winter Stripe</t>
-  </si>
-  <si>
-    <t>XS/S-M/L</t>
-  </si>
-  <si>
-    <t>51% Cotton, 44% Acrylic, 5% Polyester</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Dry clean for best results. Can be machine washed in a mesh bag in cold water on the delicate cycle. Only non-chlorine bleach. Lay flat to dry. Steam iron only if needed.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Victoria Blouse</t>
-  </si>
-  <si>
-    <t>Purr Blouse</t>
-  </si>
-  <si>
-    <t>Flourish Print</t>
-  </si>
-  <si>
-    <t>Emerald Skin Print</t>
-  </si>
-  <si>
-    <t>3850</t>
-  </si>
-  <si>
-    <t>Holiday Blazer</t>
-  </si>
-  <si>
-    <t>Holiday Plaid</t>
-  </si>
-  <si>
-    <t>96% Cotton, 4% Spandex</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water, on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -237,20 +240,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -573,282 +571,283 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>3875</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4">
+        <v>3843</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>119</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3846</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>179</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>209</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3857</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3861</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5">
+        <v>109</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3863</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3864</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5">
+        <v>99</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>3865</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5">
+        <v>109</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3869</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
-        <v>124</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D10" s="3">
+        <v>114</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>3869</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>3870</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6">
-        <v>84</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6">
-        <v>94</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>3857</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6">
-        <v>66</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>3864</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6">
-        <v>62</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>3865</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6">
-        <v>69</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>3843</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6">
-        <v>78</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>3846</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="6">
-        <v>108</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="D11" s="5">
+        <v>139</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>3861</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6">
-        <v>69</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>3863</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="5">
+        <v>149</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="6">
-        <v>66</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>32</v>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6">
-        <v>129</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="D13" s="5">
+        <v>199</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -533,7 +533,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,11 +593,11 @@
         <v>35</v>
       </c>
       <c r="H2">
-        <f>SUM(A2:G2)</f>
+        <f t="shared" ref="H2:H13" si="0">SUM(A2:G2)</f>
         <v>3942</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3846</v>
       </c>
@@ -620,7 +620,7 @@
         <v>40</v>
       </c>
       <c r="H3">
-        <f>SUM(A3:G3)</f>
+        <f t="shared" si="0"/>
         <v>3985</v>
       </c>
     </row>
@@ -647,11 +647,11 @@
         <v>48</v>
       </c>
       <c r="H4" s="8">
-        <f>SUM(A4:G4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3857</v>
       </c>
@@ -674,7 +674,7 @@
         <v>15</v>
       </c>
       <c r="H5">
-        <f>SUM(A5:G5)</f>
+        <f t="shared" si="0"/>
         <v>3941</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="9">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>7</v>
@@ -701,8 +701,8 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <f>SUM(A6:G6)</f>
-        <v>3930</v>
+        <f t="shared" si="0"/>
+        <v>3950</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="9">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>7</v>
@@ -728,8 +728,8 @@
         <v>31</v>
       </c>
       <c r="H7">
-        <f>SUM(A7:G7)</f>
-        <v>3952</v>
+        <f t="shared" si="0"/>
+        <v>3947</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="9">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>7</v>
@@ -755,8 +755,8 @@
         <v>27</v>
       </c>
       <c r="H8">
-        <f>SUM(A8:G8)</f>
-        <v>3948</v>
+        <f t="shared" si="0"/>
+        <v>3943</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="H9">
-        <f>SUM(A9:G9)</f>
+        <f t="shared" si="0"/>
         <v>3954</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <f>SUM(A10:G10)</f>
+        <f t="shared" si="0"/>
         <v>3963</v>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="7">
-        <f>SUM(A11:G11)</f>
+        <f t="shared" si="0"/>
         <v>3979</v>
       </c>
     </row>
@@ -863,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="7">
-        <f>SUM(A12:G12)</f>
+        <f t="shared" si="0"/>
         <v>3990</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <f>SUM(A13:G13)</f>
+        <f t="shared" si="0"/>
         <v>4034</v>
       </c>
     </row>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Style</t>
   </si>
@@ -53,6 +53,9 @@
     <t>XS-XL</t>
   </si>
   <si>
+    <t>3875</t>
+  </si>
+  <si>
     <t>Decked Out Dress</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
   </si>
   <si>
+    <t>3871</t>
+  </si>
+  <si>
     <t>Snap Cowl</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
   </si>
   <si>
     <t>Emerald Skin Print</t>
+  </si>
+  <si>
+    <t>3850</t>
   </si>
   <si>
     <t>Holiday Blazer</t>
@@ -231,22 +240,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,13 +541,13 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -570,336 +570,283 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>3843</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3">
+        <v>119</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>3846</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3">
+        <v>179</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3">
+        <v>209</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3857</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>104</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3861</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3">
+        <v>109</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3863</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3">
+        <v>104</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3864</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>99</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3865</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>109</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9">
-        <v>99</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H13" si="0">SUM(A2:G2)</f>
-        <v>3942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>3846</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="9">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3869</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
+        <v>114</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>3870</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3">
         <v>139</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>3985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3850</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="9">
-        <v>169</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="0"/>
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3857</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>149</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9">
-        <v>84</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>3941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3861</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="9">
-        <v>89</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>3863</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="9">
-        <v>84</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>3947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>3864</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9">
-        <v>79</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>3943</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>3865</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9">
-        <v>89</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>3954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>3869</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>199</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8">
-        <v>94</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>3963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>3870</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9">
-        <v>109</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>3979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>3871</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9">
-        <v>119</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>3875</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9">
-        <v>159</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>4034</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
-    <sortState ref="A2:H13">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Style</t>
   </si>
@@ -183,6 +184,21 @@
   </si>
   <si>
     <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water, on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be washed by hand.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>Devotion Earrings</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>One Size</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Made in China. Not intended for children under 15.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -530,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,11 +563,69 @@
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -563,10 +637,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>Style</t>
   </si>
@@ -199,6 +199,63 @@
   </si>
   <si>
     <t>&lt;div&gt;Made in China. Not intended for children under 15.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>2172</t>
+  </si>
+  <si>
+    <t>Devotion Necklace</t>
+  </si>
+  <si>
+    <t>2173</t>
+  </si>
+  <si>
+    <t>Palm Beach Earrings</t>
+  </si>
+  <si>
+    <t>Seashell</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>Palm Beach Necklace</t>
+  </si>
+  <si>
+    <t>2175</t>
+  </si>
+  <si>
+    <t>Palm Beach Bracelet</t>
+  </si>
+  <si>
+    <t>2176</t>
+  </si>
+  <si>
+    <t>La Bohème Earrings</t>
+  </si>
+  <si>
+    <t>Terra Cotta</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>La Bohème Necklace</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>Curio Earrings</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>Curio Necklace</t>
   </si>
 </sst>
 </file>
@@ -546,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +660,166 @@
         <v>55</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3">
+        <v>119</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3">
+        <v>89</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>56</v>
       </c>
     </row>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,57 +29,993 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="329">
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>SzRange</t>
+  </si>
+  <si>
+    <t>FinalContent</t>
+  </si>
+  <si>
+    <t>CareInstr</t>
+  </si>
+  <si>
+    <t>XS-XL</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>XS/S-M/L</t>
+  </si>
+  <si>
+    <t>5693</t>
+  </si>
+  <si>
+    <t>3814</t>
+  </si>
+  <si>
+    <t>5067</t>
+  </si>
+  <si>
+    <t>5756</t>
+  </si>
+  <si>
+    <t>5757</t>
+  </si>
+  <si>
+    <t>5758</t>
+  </si>
+  <si>
+    <t>5759</t>
+  </si>
+  <si>
+    <t>5761</t>
+  </si>
+  <si>
+    <t>5762</t>
+  </si>
+  <si>
+    <t>5723</t>
+  </si>
+  <si>
+    <t>5725</t>
+  </si>
+  <si>
+    <t>5726</t>
+  </si>
+  <si>
+    <t>5727</t>
+  </si>
+  <si>
+    <t>5728</t>
+  </si>
+  <si>
+    <t>5729</t>
+  </si>
+  <si>
+    <t>5730</t>
+  </si>
+  <si>
+    <t>5731</t>
+  </si>
+  <si>
+    <t>5732</t>
+  </si>
+  <si>
+    <t>5733</t>
+  </si>
+  <si>
+    <t>5734</t>
+  </si>
+  <si>
+    <t>5735</t>
+  </si>
+  <si>
+    <t>5736</t>
+  </si>
+  <si>
+    <t>5737</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
+    <t>5630</t>
+  </si>
+  <si>
+    <t>5631</t>
+  </si>
+  <si>
+    <t>5632</t>
+  </si>
+  <si>
+    <t>5633</t>
+  </si>
+  <si>
+    <t>5634</t>
+  </si>
+  <si>
+    <t>5635</t>
+  </si>
+  <si>
+    <t>5636</t>
+  </si>
+  <si>
+    <t>5637</t>
+  </si>
+  <si>
+    <t>5638</t>
+  </si>
+  <si>
+    <t>5639</t>
+  </si>
+  <si>
+    <t>5640</t>
+  </si>
+  <si>
+    <t>5641</t>
+  </si>
+  <si>
+    <t>5705</t>
+  </si>
+  <si>
+    <t>5706</t>
+  </si>
+  <si>
+    <t>5707</t>
+  </si>
+  <si>
+    <t>5708</t>
+  </si>
+  <si>
+    <t>5709</t>
+  </si>
+  <si>
+    <t>5711</t>
+  </si>
+  <si>
+    <t>5712</t>
+  </si>
+  <si>
+    <t>5713</t>
+  </si>
+  <si>
+    <t>5714</t>
+  </si>
+  <si>
+    <t>5715</t>
+  </si>
+  <si>
+    <t>5691</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>2172</t>
+  </si>
+  <si>
+    <t>2173</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>2175</t>
+  </si>
+  <si>
+    <t>2176</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>5776</t>
+  </si>
+  <si>
+    <t>5777</t>
+  </si>
+  <si>
+    <t>6022</t>
+  </si>
+  <si>
+    <t>6023</t>
+  </si>
+  <si>
+    <t>5771</t>
+  </si>
+  <si>
+    <t>5772</t>
+  </si>
+  <si>
+    <t>5773</t>
+  </si>
+  <si>
+    <t>5653</t>
+  </si>
+  <si>
+    <t>5654</t>
+  </si>
+  <si>
+    <t>5655</t>
+  </si>
+  <si>
+    <t>5656</t>
+  </si>
+  <si>
+    <t>5657</t>
+  </si>
+  <si>
+    <t>5658</t>
+  </si>
+  <si>
+    <t>5659</t>
+  </si>
+  <si>
+    <t>5660</t>
+  </si>
+  <si>
+    <t>5661</t>
+  </si>
+  <si>
+    <t>5662</t>
+  </si>
+  <si>
+    <t>5664</t>
+  </si>
+  <si>
+    <t>5689</t>
+  </si>
+  <si>
+    <t>5690</t>
+  </si>
+  <si>
+    <t>5692</t>
+  </si>
+  <si>
+    <t>5694</t>
+  </si>
+  <si>
+    <t>5695</t>
+  </si>
+  <si>
+    <t>5742</t>
+  </si>
+  <si>
+    <t>5744</t>
+  </si>
+  <si>
+    <t>5745</t>
+  </si>
+  <si>
+    <t>5746</t>
+  </si>
+  <si>
+    <t>5747</t>
+  </si>
+  <si>
+    <t>5748</t>
+  </si>
+  <si>
+    <t>5750</t>
+  </si>
+  <si>
+    <t>5686</t>
+  </si>
+  <si>
+    <t>5677</t>
+  </si>
+  <si>
+    <t>5678</t>
+  </si>
+  <si>
+    <t>5679</t>
+  </si>
+  <si>
+    <t>5680</t>
+  </si>
+  <si>
+    <t>5681</t>
+  </si>
+  <si>
+    <t>Devotion Earrings</t>
+  </si>
+  <si>
+    <t>Devotion Necklace</t>
+  </si>
+  <si>
+    <t>Palm Beach Earrings</t>
+  </si>
+  <si>
+    <t>Palm Beach Necklace</t>
+  </si>
+  <si>
+    <t>Palm Beach Bracelet</t>
+  </si>
+  <si>
+    <t>La Bohème Earrings</t>
+  </si>
+  <si>
+    <t>La Bohème Necklace</t>
+  </si>
+  <si>
+    <t>Curio Earrings</t>
+  </si>
+  <si>
+    <t>Curio Necklace</t>
+  </si>
+  <si>
+    <t>Grommet Belt</t>
+  </si>
+  <si>
+    <t>Shrimpton Scarf</t>
+  </si>
+  <si>
+    <t>Bow Kitten Heel</t>
+  </si>
+  <si>
+    <t>Siren Sandal</t>
+  </si>
+  <si>
+    <t>Siren Wrap Dress</t>
+  </si>
+  <si>
+    <t>The Ten Dress</t>
+  </si>
+  <si>
+    <t>Uptown Jumpsuit</t>
+  </si>
+  <si>
+    <t>Library Jacket</t>
+  </si>
+  <si>
+    <t>Harbor Jacket</t>
+  </si>
+  <si>
+    <t>Relax Jacket</t>
+  </si>
+  <si>
+    <t>Grace Blazer</t>
+  </si>
+  <si>
+    <t>Deluxe Hoodie</t>
+  </si>
+  <si>
+    <t>Carriage Jacket</t>
+  </si>
+  <si>
+    <t>Kenya Jacket</t>
+  </si>
+  <si>
+    <t>Headline Topper</t>
+  </si>
+  <si>
+    <t>Botanical Kimono</t>
+  </si>
+  <si>
+    <t>Dylan Jacket</t>
+  </si>
+  <si>
+    <t>Poet Jacket</t>
+  </si>
+  <si>
+    <t>Cinch Skinny</t>
+  </si>
+  <si>
+    <t>Lido Crop</t>
+  </si>
+  <si>
+    <t>High-Low Crop</t>
+  </si>
+  <si>
+    <t>Button Fly Skinny</t>
+  </si>
+  <si>
+    <t>Slim Boyfriend</t>
+  </si>
+  <si>
+    <t>Lighthouse Tee</t>
+  </si>
+  <si>
+    <t>Serenity Tee</t>
+  </si>
+  <si>
+    <t>Relax Escape Tee</t>
+  </si>
+  <si>
+    <t>Relax Game Day Sweatshirt</t>
+  </si>
+  <si>
+    <t>Fold Pocket Tee</t>
+  </si>
+  <si>
+    <t>Daisy Tee</t>
+  </si>
+  <si>
+    <t>Tickled Tee</t>
+  </si>
+  <si>
+    <t>Relax Cropped Legging</t>
+  </si>
+  <si>
+    <t>Kelly Wide-Leg Crop</t>
+  </si>
+  <si>
+    <t>Grace Trouser</t>
+  </si>
+  <si>
+    <t>Carriage Trouser</t>
+  </si>
+  <si>
+    <t>Spotted Jogger</t>
+  </si>
+  <si>
+    <t>Café Lounger</t>
+  </si>
+  <si>
+    <t>Discovery Trouser</t>
+  </si>
+  <si>
+    <t>Racerback Cami</t>
+  </si>
+  <si>
+    <t>V-Neck Cami</t>
+  </si>
+  <si>
+    <t>Province Tank</t>
+  </si>
+  <si>
+    <t>Knotty Tank</t>
+  </si>
+  <si>
+    <t>Amelia Tank</t>
+  </si>
+  <si>
+    <t>Spirit Tank</t>
+  </si>
+  <si>
+    <t>Comeback Tank</t>
+  </si>
+  <si>
+    <t>Frolic Top</t>
+  </si>
+  <si>
+    <t>Sunshine Cami</t>
+  </si>
+  <si>
+    <t>Front Porch Top</t>
+  </si>
+  <si>
+    <t>Lace Flutter Top</t>
+  </si>
+  <si>
+    <t>Handy Cami</t>
+  </si>
+  <si>
+    <t>All-Purpose Cami</t>
+  </si>
+  <si>
+    <t>Seraphina Top</t>
+  </si>
+  <si>
+    <t>Shoulder Tie Top</t>
+  </si>
+  <si>
+    <t>Hobnob Cami</t>
+  </si>
+  <si>
+    <t>Befriend Top</t>
+  </si>
+  <si>
+    <t>Tied-Up Top</t>
+  </si>
+  <si>
+    <t>Couple Cami</t>
+  </si>
+  <si>
+    <t>Hold Up Top</t>
+  </si>
+  <si>
+    <t>Poem Cami</t>
+  </si>
+  <si>
+    <t>Drama Skirt</t>
+  </si>
+  <si>
+    <t>Trio Sweater</t>
+  </si>
+  <si>
+    <t>Shy Pullover</t>
+  </si>
+  <si>
+    <t>Union Sweater</t>
+  </si>
+  <si>
+    <t>Comfort Cardigan</t>
+  </si>
+  <si>
+    <t>Cabaret Cardigan</t>
+  </si>
+  <si>
+    <t>Pocket Pullover</t>
+  </si>
+  <si>
+    <t>Cropped Cable Pullover</t>
+  </si>
+  <si>
+    <t>Sunny Sweater</t>
+  </si>
+  <si>
+    <t>Dashes Sweater</t>
+  </si>
+  <si>
+    <t>Ace Pullover</t>
+  </si>
+  <si>
+    <t>Deadline Cardigan</t>
+  </si>
+  <si>
+    <t>Volley Pullover</t>
+  </si>
+  <si>
+    <t>Go-To Button-Up</t>
+  </si>
+  <si>
+    <t>Thespian Blouse</t>
+  </si>
+  <si>
+    <t>Reef Knot Blouse</t>
+  </si>
+  <si>
+    <t>Bethany Blouse</t>
+  </si>
+  <si>
+    <t>Aurora Blouse</t>
+  </si>
+  <si>
+    <t>Minx Blouse</t>
+  </si>
+  <si>
+    <t>Split Sleeve Top</t>
+  </si>
+  <si>
+    <t>Gather Blouse</t>
+  </si>
+  <si>
+    <t>Woodstock Top</t>
+  </si>
+  <si>
+    <t>The Ideal Button-Up</t>
+  </si>
+  <si>
+    <t>Trouser Jean - Regular</t>
+  </si>
   <si>
     <t>Pearl</t>
   </si>
   <si>
+    <t>Seashell</t>
+  </si>
+  <si>
+    <t>Terra Cotta</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Brown Brass</t>
+  </si>
+  <si>
+    <t>Multi Mod</t>
+  </si>
+  <si>
+    <t>Navy Mix</t>
+  </si>
+  <si>
+    <t>Savage Skin</t>
+  </si>
+  <si>
+    <t>Blue Flowers</t>
+  </si>
+  <si>
+    <t>Vermilion</t>
+  </si>
+  <si>
+    <t>Green Check</t>
+  </si>
+  <si>
+    <t>Nautical Stripe</t>
+  </si>
+  <si>
+    <t>Carnation</t>
+  </si>
+  <si>
+    <t>Tangerine</t>
+  </si>
+  <si>
+    <t>Classic Navy</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Multi Stripe</t>
+  </si>
+  <si>
+    <t>Blue and White Floral</t>
+  </si>
+  <si>
+    <t>Greenwich Wash</t>
+  </si>
+  <si>
+    <t>Patchwork Print</t>
+  </si>
+  <si>
+    <t>Moulin Rouge</t>
+  </si>
+  <si>
+    <t>Dream Weaver Wash</t>
+  </si>
+  <si>
+    <t>Engineer Wash</t>
+  </si>
+  <si>
+    <t>Navy Stripe</t>
+  </si>
+  <si>
+    <t>Heliotrope</t>
+  </si>
+  <si>
+    <t>Black and White</t>
+  </si>
+  <si>
+    <t>Blazing Yellow</t>
+  </si>
+  <si>
+    <t>Summer Stripe</t>
+  </si>
+  <si>
+    <t>Multi Patriot</t>
+  </si>
+  <si>
+    <t>Leopard Print</t>
+  </si>
+  <si>
+    <t>Cumin</t>
+  </si>
+  <si>
+    <t>Blush</t>
+  </si>
+  <si>
+    <t>Green Stripe</t>
+  </si>
+  <si>
+    <t>Tangerine Stripe</t>
+  </si>
+  <si>
+    <t>Biscotti Stripe</t>
+  </si>
+  <si>
+    <t>Lemonade Print</t>
+  </si>
+  <si>
+    <t>Seersucker Stripe</t>
+  </si>
+  <si>
+    <t>Crazy Daisy</t>
+  </si>
+  <si>
+    <t>Bubble Flowers</t>
+  </si>
+  <si>
+    <t>Mint Print</t>
+  </si>
+  <si>
+    <t>Baby Floral</t>
+  </si>
+  <si>
+    <t>Cartoon Flowers</t>
+  </si>
+  <si>
+    <t>Leopard Flower</t>
+  </si>
+  <si>
+    <t>Winding Belts</t>
+  </si>
+  <si>
+    <t>Tile Print</t>
+  </si>
+  <si>
+    <t>Midnight Flowers</t>
+  </si>
+  <si>
+    <t>Rainbow Stripe</t>
+  </si>
+  <si>
+    <t>Blush Zebra</t>
+  </si>
+  <si>
+    <t>Black Tipped</t>
+  </si>
+  <si>
+    <t>Red Stripe</t>
+  </si>
+  <si>
+    <t>Straw</t>
+  </si>
+  <si>
+    <t>Broken Stripe</t>
+  </si>
+  <si>
+    <t>Tennis White</t>
+  </si>
+  <si>
+    <t>Multi Navy</t>
+  </si>
+  <si>
+    <t>Polka Dot</t>
+  </si>
+  <si>
+    <t>Floating Flowers</t>
+  </si>
+  <si>
+    <t>Sunny Ropes</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Lilac Leopard</t>
+  </si>
+  <si>
+    <t>Cherry Blossoms</t>
+  </si>
+  <si>
+    <t>Marigold Flower</t>
+  </si>
+  <si>
+    <t>Tie-Dye Print</t>
+  </si>
+  <si>
+    <t>Deep Sea Wash</t>
+  </si>
+  <si>
     <t>One Size</t>
   </si>
   <si>
+    <t>5-11</t>
+  </si>
+  <si>
+    <t>XS-XXL</t>
+  </si>
+  <si>
+    <t>XXS-XL</t>
+  </si>
+  <si>
+    <t>0-16</t>
+  </si>
+  <si>
+    <t>00-16</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>XXS-XXL</t>
+  </si>
+  <si>
+    <t>96% Cotton, 4% Spandex</t>
+  </si>
+  <si>
+    <t>99% Cotton, 1% other fibers</t>
+  </si>
+  <si>
+    <t>58% Cotton, 41% Rayon, 1% other fibers, exclusive of decoration</t>
+  </si>
+  <si>
+    <t>60% Cotton, 39% Rayon, 1% other fibers</t>
+  </si>
+  <si>
+    <t>Self: 100% Cotton Belt: 100% Cotton</t>
+  </si>
+  <si>
+    <t>59% Cotton, 40% Polyester, 1% other fibers</t>
+  </si>
+  <si>
+    <t>58% Cotton, 42% Modal</t>
+  </si>
+  <si>
+    <t>77% Cotton, 22% Nylon, 1% other fibers</t>
+  </si>
+  <si>
+    <t>100% Cotton</t>
+  </si>
+  <si>
+    <t>Self: 100% Cotton Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>Self: 96% Cotton, 4% Spandex Contrast: 53% Cotton, 34% Polyester, 11% Rayon, 2% Spandex</t>
+  </si>
+  <si>
+    <t>Self: 72% Rayon, 24% Nylon, 4% Spandex Contrast: 59% Rayon, 37% Nylon, 4% Spandex</t>
+  </si>
+  <si>
+    <t>53% Cotton, 43% Polyester, 4% Spandex</t>
+  </si>
+  <si>
+    <t>Self: 84% Cotton, 16% Polyester Contrast: 95% Cotton, 5% Spandex, exclusive of decoration</t>
+  </si>
+  <si>
+    <t>Self: 68% Rayon, 26% Nylon, 4% Polyester, 2% Spandex Trim: 68% Rayon, 26% Nylon, 4% Polyester, 2% Spandex</t>
+  </si>
+  <si>
+    <t>Self: 35% Polyester, 27% Cotton, 24% Acrylic, 14% Nylon Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>Self: 100% Viscose Contrast: 100% Viscose</t>
+  </si>
+  <si>
+    <t>93% Cotton, 6% Polyester, 1% Spandex</t>
+  </si>
+  <si>
+    <t>Self: 100% Viscose Contrast: 100% Viscose Belt: 100% Viscose</t>
+  </si>
+  <si>
+    <t>75% Rayon, 19% Nylon, 6% Spandex</t>
+  </si>
+  <si>
+    <t>68% Rayon, 26% Nylon, 4% Polyester, 2% Spandex</t>
+  </si>
+  <si>
+    <t>48% Modal, 48% Cotton, 4% Spandex</t>
+  </si>
+  <si>
+    <t>100% Viscose</t>
+  </si>
+  <si>
+    <t>72% Rayon, 24% Nylon, 4% Spandex</t>
+  </si>
+  <si>
+    <t>90% Cotton, 8% Polyester, 2% Spandex</t>
+  </si>
+  <si>
+    <t>91% Cotton, 7% Polyester, 2% Spandex</t>
+  </si>
+  <si>
+    <t>73% Cotton, 14% Lyocell, 10% Polyester, 3% Spandex</t>
+  </si>
+  <si>
+    <t>61% Lyocell, 37% Cotton, 2% Spandex</t>
+  </si>
+  <si>
+    <t>Self: 96% Polyester, 4% Spandex Lining: 96% Polyester, 4% Spandex</t>
+  </si>
+  <si>
+    <t>100% Polyester</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Contrast: 100% Polyester</t>
+  </si>
+  <si>
+    <t>52% Linen, 48% Viscose</t>
+  </si>
+  <si>
+    <t>Self: 100% Rayon Embroidery: 100% Cotton</t>
+  </si>
+  <si>
+    <t>80% Cotton, 17% Nylon, 3% Spandex, exclusive of decoration</t>
+  </si>
+  <si>
+    <t>100% Polyester, exclusive of decoration</t>
+  </si>
+  <si>
+    <t>Self: 100% Polyester Contrast: 100% Polyester Lining: 100% Polyester</t>
+  </si>
+  <si>
+    <t>Self: 98% Rayon, 2% Spandex Contrast: 93% Rayon, 7% Spandex</t>
+  </si>
+  <si>
+    <t>97% Rayon, 3% Spandex</t>
+  </si>
+  <si>
+    <t>98% Rayon, 2% Spandex</t>
+  </si>
+  <si>
+    <t>96% Rayon, 4% Spandex</t>
+  </si>
+  <si>
+    <t>Self:100% Rayon, Lining:100% Rayon</t>
+  </si>
+  <si>
+    <t>65% Modal, 31% Cotton, 4% Spandex</t>
+  </si>
+  <si>
+    <t>Self: 95% Nylon, 5% Spandex Lining: 95% Nylon, 5% Spandex</t>
+  </si>
+  <si>
+    <t>Genuine Leather</t>
+  </si>
+  <si>
+    <t>100% Silk</t>
+  </si>
+  <si>
+    <t>Upper: 100% Polyester Upper Bow: 54% Polyester, 46% Viscose Balance: Man Made Materials</t>
+  </si>
+  <si>
+    <t>Upper, Toe &amp; Heel Cover: 100% Polyester Balance: Man Made Materials</t>
+  </si>
+  <si>
     <t>&lt;div&gt;Made in China. Not intended for children under 15.&lt;/div&gt;</t>
   </si>
   <si>
-    <t>Devotion Necklace</t>
-  </si>
-  <si>
-    <t>Palm Beach Earrings</t>
-  </si>
-  <si>
-    <t>Seashell</t>
-  </si>
-  <si>
-    <t>Palm Beach Necklace</t>
-  </si>
-  <si>
-    <t>Palm Beach Bracelet</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>SzRange</t>
-  </si>
-  <si>
-    <t>FinalContent</t>
-  </si>
-  <si>
-    <t>CareInstr</t>
-  </si>
-  <si>
-    <t>Canada Retail</t>
-  </si>
-  <si>
-    <t>UK Retail</t>
+    <t>&lt;div&gt;Machine wash separately, inside out, in cold water on the delicate cycle. Do not bleach. Tumble dry low, remove promptly. Warm iron if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Dry clean for best results. Can be machine washed in a mesh bag in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Steam iron only if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Turn garment inside out and place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chloroine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Steam iron on the reverse side if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash, inside out, with mild detergent in cold water on the delicate cycle. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Warm iron if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam iron only if needed. Can be dry cleaned. &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash separately, inside out, in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Cool iron on the reverse side if needed. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Steam iron on the reverse side if needed. &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Machine wash with like colors in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed. &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam press back to shape. Can be dry cleaned.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Do not twist or wring. Lay flat to dry. Steam press back to shape. Can be dry cleaned. &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Place in a mesh bag. Machine wash separately in cold water on the delicate cycle. Only non-chlorine bleach if needed. Lay flat to dry. Steam iron low if needed to press back to shape. Can be dry cleaned in a mesh bag. Do not hand wash. &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -135,15 +1073,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -425,10 +1360,2242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A1:G93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3">
+        <v>119</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="3">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="3">
+        <v>89</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="3">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="3">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3">
+        <v>114</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="3">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>94</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3">
+        <v>124</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3">
+        <v>124</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3">
+        <v>119</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3">
+        <v>99</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="3">
+        <v>112</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3">
+        <v>134</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="3">
+        <v>114</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="3">
+        <v>129</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="3">
+        <v>94</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="3">
+        <v>184</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>174</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>144</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3">
+        <v>174</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3">
+        <v>129</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="3">
+        <v>184</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="3">
+        <v>164</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="3">
+        <v>299</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3">
+        <v>109</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3">
+        <v>159</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3">
+        <v>149</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3">
+        <v>124</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="3">
+        <v>124</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <v>124</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="3">
+        <v>114</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>124</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>99</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>129</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>129</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="3">
+        <v>129</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3">
+        <v>114</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3">
+        <v>129</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="3">
+        <v>139</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3">
+        <v>139</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="3">
+        <v>129</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3">
+        <v>92</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="3">
+        <v>92</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="3">
+        <v>92</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="3">
+        <v>92</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="3">
+        <v>92</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="3">
+        <v>99</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="3">
+        <v>82</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3">
+        <v>92</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="3">
+        <v>109</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>92</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>119</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="3">
+        <v>79</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="3">
+        <v>79</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="3">
+        <v>92</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="3">
+        <v>79</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3">
+        <v>79</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="3">
+        <v>92</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="3">
+        <v>79</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="3">
+        <v>79</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="3">
+        <v>82</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="3">
+        <v>82</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="3">
+        <v>79</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="3">
+        <v>82</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="3">
+        <v>79</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="3">
+        <v>89</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="3">
+        <v>84</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>62</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3">
+        <v>109</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3">
+        <v>66</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="3">
+        <v>69</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="3">
+        <v>89</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>89</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="3">
+        <v>62</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="3">
+        <v>76</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="3">
+        <v>72</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="3">
+        <v>69</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="3">
+        <v>69</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>144</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="3">
+        <v>132</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="3">
+        <v>134</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="3">
+        <v>99</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="3">
+        <v>54</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="3">
+        <v>99</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="3">
+        <v>109</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,190 +3609,134 @@
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>2172</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2173</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2174</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="D4" s="3">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>257</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2175</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="3">
+        <v>109</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>312</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -12,12 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="us" sheetId="2" r:id="rId1"/>
+    <sheet name="short" sheetId="1" r:id="rId2"/>
+    <sheet name="uk" sheetId="5" r:id="rId3"/>
+    <sheet name="ca" sheetId="3" r:id="rId4"/>
+    <sheet name="all3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">short!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">us!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="331">
   <si>
     <t>Style</t>
   </si>
@@ -1016,6 +1019,12 @@
   </si>
   <si>
     <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>RetailCA</t>
+  </si>
+  <si>
+    <t>ReatailUK</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1054,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1068,17 +1077,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1363,8 +1384,8 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3592,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,126 +3655,6957 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="3">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="3">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="3">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="3">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="3">
+        <v>84</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3">
+        <v>99</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="3">
+        <v>84</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="3">
+        <v>99</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="3">
+        <v>69</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="3">
+        <v>136</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>129</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>108</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3">
+        <v>129</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3">
+        <v>99</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="3">
+        <v>136</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="3">
+        <v>124</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="3">
+        <v>234</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3">
+        <v>84</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3">
+        <v>124</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3">
+        <v>119</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3">
+        <v>94</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="3">
+        <v>94</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <v>94</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="3">
+        <v>84</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>94</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>69</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>94</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="3">
+        <v>94</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3">
+        <v>84</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3">
+        <v>94</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="3">
+        <v>99</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3">
+        <v>99</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="3">
+        <v>99</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3">
+        <v>69</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="3">
+        <v>69</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="3">
+        <v>69</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="3">
+        <v>69</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="3">
+        <v>69</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="3">
+        <v>74</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="3">
+        <v>62</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3">
+        <v>69</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="3">
+        <v>76</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>69</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>94</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="3">
+        <v>62</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="3">
+        <v>62</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="3">
+        <v>69</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="3">
+        <v>62</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3">
+        <v>62</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="3">
+        <v>69</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="3">
+        <v>62</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="3">
+        <v>62</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="3">
+        <v>62</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="3">
+        <v>62</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="3">
+        <v>62</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="3">
+        <v>62</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="3">
+        <v>62</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="3">
+        <v>69</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="3">
+        <v>62</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>46</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3">
+        <v>84</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3">
+        <v>49</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="3">
+        <v>49</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="3">
+        <v>69</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>69</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="3">
+        <v>46</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="3">
+        <v>59</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="3">
+        <v>54</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="3">
+        <v>49</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="3">
+        <v>49</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>108</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="3">
+        <v>99</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="3">
+        <v>99</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="3">
+        <v>69</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="3">
+        <v>42</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="G91" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="3">
+        <v>76</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="3">
+        <v>84</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3">
+        <v>139</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="3">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3">
         <v>99</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>99</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="3">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="3">
+        <v>89</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3">
+        <v>149</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3">
+        <v>139</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="3">
+        <v>118</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>109</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3">
+        <v>149</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3">
+        <v>149</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3">
+        <v>149</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3">
+        <v>118</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="3">
+        <v>139</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3">
+        <v>159</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="3">
+        <v>139</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="3">
+        <v>159</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="3">
+        <v>109</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="3">
+        <v>219</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>209</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>179</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3">
+        <v>209</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3">
+        <v>159</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="3">
+        <v>219</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="3">
+        <v>199</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="3">
+        <v>369</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3">
+        <v>139</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3">
+        <v>199</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3">
+        <v>189</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3">
+        <v>149</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="3">
+        <v>149</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <v>149</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="3">
+        <v>139</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>149</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>109</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>149</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>149</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="3">
+        <v>149</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3">
+        <v>139</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3">
+        <v>149</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="3">
+        <v>159</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3">
+        <v>159</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="3">
+        <v>159</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3">
+        <v>109</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="3">
+        <v>109</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="3">
+        <v>109</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="3">
+        <v>109</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="3">
+        <v>109</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="3">
+        <v>116</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="3">
+        <v>99</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3">
+        <v>109</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="3">
+        <v>118</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>109</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>149</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="3">
+        <v>99</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="3">
+        <v>99</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="3">
+        <v>109</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="3">
+        <v>99</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3">
+        <v>99</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="3">
+        <v>109</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="3">
+        <v>99</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="3">
+        <v>99</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="3">
+        <v>99</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="3">
+        <v>99</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="3">
+        <v>99</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="3">
+        <v>99</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="3">
+        <v>99</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="3">
+        <v>109</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="3">
+        <v>99</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>74</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3">
+        <v>139</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3">
+        <v>79</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="3">
+        <v>79</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="3">
+        <v>109</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>109</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="3">
+        <v>74</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="3">
+        <v>96</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="3">
+        <v>89</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="3">
+        <v>79</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="3">
+        <v>79</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>179</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="3">
+        <v>159</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="3">
+        <v>159</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="3">
+        <v>109</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="3">
+        <v>64</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="3">
+        <v>118</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F92" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="3">
+        <v>139</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3">
+        <v>139</v>
+      </c>
+      <c r="F3" s="3">
+        <v>84</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="3">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="3">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3">
+        <v>99</v>
+      </c>
+      <c r="F5" s="3">
+        <v>62</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3">
+        <v>99</v>
+      </c>
+      <c r="F6" s="3">
+        <v>62</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="3">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="3">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3">
+        <v>149</v>
+      </c>
+      <c r="F10" s="3">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3">
+        <v>114</v>
+      </c>
+      <c r="E13" s="3">
+        <v>139</v>
+      </c>
+      <c r="F13" s="3">
+        <v>84</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="3">
+        <v>99</v>
+      </c>
+      <c r="E14" s="3">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3">
+        <v>109</v>
+      </c>
+      <c r="F15" s="3">
+        <v>69</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3">
+        <v>124</v>
+      </c>
+      <c r="E16" s="3">
+        <v>149</v>
+      </c>
+      <c r="F16" s="3">
+        <v>94</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3">
+        <v>149</v>
+      </c>
+      <c r="F17" s="3">
+        <v>94</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3">
+        <v>119</v>
+      </c>
+      <c r="E18" s="3">
+        <v>149</v>
+      </c>
+      <c r="F18" s="3">
+        <v>94</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3">
+        <v>118</v>
+      </c>
+      <c r="F19" s="3">
+        <v>76</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="3">
+        <v>112</v>
+      </c>
+      <c r="E20" s="3">
+        <v>139</v>
+      </c>
+      <c r="F20" s="3">
+        <v>84</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3">
+        <v>134</v>
+      </c>
+      <c r="E21" s="3">
+        <v>159</v>
+      </c>
+      <c r="F21" s="3">
+        <v>99</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="3">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3">
+        <v>139</v>
+      </c>
+      <c r="F22" s="3">
+        <v>84</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="3">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3">
+        <v>159</v>
+      </c>
+      <c r="F23" s="3">
+        <v>99</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="3">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3">
+        <v>109</v>
+      </c>
+      <c r="F24" s="3">
+        <v>69</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="3">
+        <v>184</v>
+      </c>
+      <c r="E25" s="3">
+        <v>219</v>
+      </c>
+      <c r="F25" s="3">
+        <v>136</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>174</v>
+      </c>
+      <c r="E26" s="3">
+        <v>209</v>
+      </c>
+      <c r="F26" s="3">
+        <v>129</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>144</v>
+      </c>
+      <c r="E27" s="3">
+        <v>179</v>
+      </c>
+      <c r="F27" s="3">
+        <v>108</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3">
+        <v>174</v>
+      </c>
+      <c r="E28" s="3">
+        <v>209</v>
+      </c>
+      <c r="F28" s="3">
+        <v>129</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3">
+        <v>129</v>
+      </c>
+      <c r="E29" s="3">
+        <v>159</v>
+      </c>
+      <c r="F29" s="3">
+        <v>99</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="3">
+        <v>184</v>
+      </c>
+      <c r="E30" s="3">
+        <v>219</v>
+      </c>
+      <c r="F30" s="3">
+        <v>136</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="3">
+        <v>164</v>
+      </c>
+      <c r="E31" s="3">
+        <v>199</v>
+      </c>
+      <c r="F31" s="3">
+        <v>124</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="3">
+        <v>299</v>
+      </c>
+      <c r="E32" s="3">
+        <v>369</v>
+      </c>
+      <c r="F32" s="3">
+        <v>234</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3">
+        <v>109</v>
+      </c>
+      <c r="E33" s="3">
+        <v>139</v>
+      </c>
+      <c r="F33" s="3">
+        <v>84</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3">
+        <v>159</v>
+      </c>
+      <c r="E34" s="3">
+        <v>199</v>
+      </c>
+      <c r="F34" s="3">
+        <v>124</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3">
+        <v>149</v>
+      </c>
+      <c r="E35" s="3">
+        <v>189</v>
+      </c>
+      <c r="F35" s="3">
+        <v>119</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3">
+        <v>124</v>
+      </c>
+      <c r="E36" s="3">
+        <v>149</v>
+      </c>
+      <c r="F36" s="3">
+        <v>94</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="3">
+        <v>124</v>
+      </c>
+      <c r="E37" s="3">
+        <v>149</v>
+      </c>
+      <c r="F37" s="3">
+        <v>94</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <v>124</v>
+      </c>
+      <c r="E38" s="3">
+        <v>149</v>
+      </c>
+      <c r="F38" s="3">
+        <v>94</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="3">
+        <v>114</v>
+      </c>
+      <c r="E39" s="3">
+        <v>139</v>
+      </c>
+      <c r="F39" s="3">
+        <v>84</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>124</v>
+      </c>
+      <c r="E40" s="3">
+        <v>149</v>
+      </c>
+      <c r="F40" s="3">
+        <v>94</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>99</v>
+      </c>
+      <c r="E41" s="3">
+        <v>109</v>
+      </c>
+      <c r="F41" s="3">
+        <v>69</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>129</v>
+      </c>
+      <c r="E42" s="3">
+        <v>149</v>
+      </c>
+      <c r="F42" s="3">
+        <v>94</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>129</v>
+      </c>
+      <c r="E43" s="3">
+        <v>149</v>
+      </c>
+      <c r="F43" s="3">
+        <v>94</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="3">
+        <v>129</v>
+      </c>
+      <c r="E44" s="3">
+        <v>149</v>
+      </c>
+      <c r="F44" s="3">
+        <v>94</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3">
+        <v>114</v>
+      </c>
+      <c r="E45" s="3">
+        <v>139</v>
+      </c>
+      <c r="F45" s="3">
+        <v>84</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3">
+        <v>129</v>
+      </c>
+      <c r="E46" s="3">
+        <v>149</v>
+      </c>
+      <c r="F46" s="3">
+        <v>94</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="3">
+        <v>139</v>
+      </c>
+      <c r="E47" s="3">
+        <v>159</v>
+      </c>
+      <c r="F47" s="3">
+        <v>99</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3">
+        <v>139</v>
+      </c>
+      <c r="E48" s="3">
+        <v>159</v>
+      </c>
+      <c r="F48" s="3">
+        <v>99</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="3">
+        <v>129</v>
+      </c>
+      <c r="E49" s="3">
+        <v>159</v>
+      </c>
+      <c r="F49" s="3">
+        <v>99</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3">
+        <v>92</v>
+      </c>
+      <c r="E50" s="3">
+        <v>109</v>
+      </c>
+      <c r="F50" s="3">
+        <v>69</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="3">
+        <v>92</v>
+      </c>
+      <c r="E51" s="3">
+        <v>109</v>
+      </c>
+      <c r="F51" s="3">
+        <v>69</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="3">
+        <v>92</v>
+      </c>
+      <c r="E52" s="3">
+        <v>109</v>
+      </c>
+      <c r="F52" s="3">
+        <v>69</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="3">
+        <v>92</v>
+      </c>
+      <c r="E53" s="3">
+        <v>109</v>
+      </c>
+      <c r="F53" s="3">
+        <v>69</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="3">
+        <v>92</v>
+      </c>
+      <c r="E54" s="3">
+        <v>109</v>
+      </c>
+      <c r="F54" s="3">
+        <v>69</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="3">
+        <v>99</v>
+      </c>
+      <c r="E55" s="3">
+        <v>116</v>
+      </c>
+      <c r="F55" s="3">
+        <v>74</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="3">
+        <v>82</v>
+      </c>
+      <c r="E56" s="3">
+        <v>99</v>
+      </c>
+      <c r="F56" s="3">
+        <v>62</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3">
+        <v>92</v>
+      </c>
+      <c r="E57" s="3">
+        <v>109</v>
+      </c>
+      <c r="F57" s="3">
+        <v>69</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="3">
+        <v>109</v>
+      </c>
+      <c r="E58" s="3">
+        <v>118</v>
+      </c>
+      <c r="F58" s="3">
+        <v>76</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>92</v>
+      </c>
+      <c r="E59" s="3">
+        <v>109</v>
+      </c>
+      <c r="F59" s="3">
+        <v>69</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>119</v>
+      </c>
+      <c r="E60" s="3">
+        <v>149</v>
+      </c>
+      <c r="F60" s="3">
+        <v>94</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="3">
+        <v>79</v>
+      </c>
+      <c r="E61" s="3">
+        <v>99</v>
+      </c>
+      <c r="F61" s="3">
+        <v>62</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="3">
+        <v>79</v>
+      </c>
+      <c r="E62" s="3">
+        <v>99</v>
+      </c>
+      <c r="F62" s="3">
+        <v>62</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="3">
+        <v>92</v>
+      </c>
+      <c r="E63" s="3">
+        <v>109</v>
+      </c>
+      <c r="F63" s="3">
+        <v>69</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="3">
+        <v>79</v>
+      </c>
+      <c r="E64" s="3">
+        <v>99</v>
+      </c>
+      <c r="F64" s="3">
+        <v>62</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3">
+        <v>79</v>
+      </c>
+      <c r="E65" s="3">
+        <v>99</v>
+      </c>
+      <c r="F65" s="3">
+        <v>62</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="3">
+        <v>92</v>
+      </c>
+      <c r="E66" s="3">
+        <v>109</v>
+      </c>
+      <c r="F66" s="3">
+        <v>69</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="3">
+        <v>79</v>
+      </c>
+      <c r="E67" s="3">
+        <v>99</v>
+      </c>
+      <c r="F67" s="3">
+        <v>62</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="3">
+        <v>79</v>
+      </c>
+      <c r="E68" s="3">
+        <v>99</v>
+      </c>
+      <c r="F68" s="3">
+        <v>62</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="3">
+        <v>82</v>
+      </c>
+      <c r="E69" s="3">
+        <v>99</v>
+      </c>
+      <c r="F69" s="3">
+        <v>62</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="3">
+        <v>82</v>
+      </c>
+      <c r="E70" s="3">
+        <v>99</v>
+      </c>
+      <c r="F70" s="3">
+        <v>62</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="3">
+        <v>79</v>
+      </c>
+      <c r="E71" s="3">
+        <v>99</v>
+      </c>
+      <c r="F71" s="3">
+        <v>62</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="3">
+        <v>82</v>
+      </c>
+      <c r="E72" s="3">
+        <v>99</v>
+      </c>
+      <c r="F72" s="3">
+        <v>62</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="3">
+        <v>79</v>
+      </c>
+      <c r="E73" s="3">
+        <v>99</v>
+      </c>
+      <c r="F73" s="3">
+        <v>62</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="3">
+        <v>89</v>
+      </c>
+      <c r="E74" s="3">
+        <v>109</v>
+      </c>
+      <c r="F74" s="3">
+        <v>69</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="3">
+        <v>84</v>
+      </c>
+      <c r="E75" s="3">
+        <v>99</v>
+      </c>
+      <c r="F75" s="3">
+        <v>62</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>62</v>
+      </c>
+      <c r="E76" s="3">
+        <v>74</v>
+      </c>
+      <c r="F76" s="3">
+        <v>46</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3">
+        <v>109</v>
+      </c>
+      <c r="E77" s="3">
+        <v>139</v>
+      </c>
+      <c r="F77" s="3">
+        <v>84</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3">
+        <v>66</v>
+      </c>
+      <c r="E78" s="3">
+        <v>79</v>
+      </c>
+      <c r="F78" s="3">
+        <v>49</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="3">
+        <v>69</v>
+      </c>
+      <c r="E79" s="3">
+        <v>79</v>
+      </c>
+      <c r="F79" s="3">
+        <v>49</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="3">
+        <v>89</v>
+      </c>
+      <c r="E80" s="3">
+        <v>109</v>
+      </c>
+      <c r="F80" s="3">
+        <v>69</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>89</v>
+      </c>
+      <c r="E81" s="3">
+        <v>109</v>
+      </c>
+      <c r="F81" s="3">
+        <v>69</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="3">
+        <v>62</v>
+      </c>
+      <c r="E82" s="3">
+        <v>74</v>
+      </c>
+      <c r="F82" s="3">
+        <v>46</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="3">
+        <v>76</v>
+      </c>
+      <c r="E83" s="3">
+        <v>96</v>
+      </c>
+      <c r="F83" s="3">
+        <v>59</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="3">
+        <v>72</v>
+      </c>
+      <c r="E84" s="3">
+        <v>89</v>
+      </c>
+      <c r="F84" s="3">
+        <v>54</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="3">
+        <v>69</v>
+      </c>
+      <c r="E85" s="3">
+        <v>79</v>
+      </c>
+      <c r="F85" s="3">
+        <v>49</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="3">
+        <v>69</v>
+      </c>
+      <c r="E86" s="3">
+        <v>79</v>
+      </c>
+      <c r="F86" s="3">
+        <v>49</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>144</v>
+      </c>
+      <c r="E87" s="3">
+        <v>179</v>
+      </c>
+      <c r="F87" s="3">
+        <v>108</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="3">
+        <v>132</v>
+      </c>
+      <c r="E88" s="3">
+        <v>159</v>
+      </c>
+      <c r="F88" s="3">
+        <v>99</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="3">
+        <v>134</v>
+      </c>
+      <c r="E89" s="3">
+        <v>159</v>
+      </c>
+      <c r="F89" s="3">
+        <v>99</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="3">
+        <v>99</v>
+      </c>
+      <c r="E90" s="3">
+        <v>109</v>
+      </c>
+      <c r="F90" s="3">
+        <v>69</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="3">
+        <v>54</v>
+      </c>
+      <c r="E91" s="3">
+        <v>64</v>
+      </c>
+      <c r="F91" s="3">
+        <v>42</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="3">
+        <v>99</v>
+      </c>
+      <c r="E92" s="3">
+        <v>118</v>
+      </c>
+      <c r="F92" s="3">
+        <v>76</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D93" s="3">
         <v>109</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E93" s="3">
+        <v>139</v>
+      </c>
+      <c r="F93" s="3">
+        <v>84</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>66</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="I93" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/productData.xlsx
+++ b/KatalonProjects/productData.xlsx
@@ -12,12 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="us" sheetId="2" r:id="rId1"/>
+    <sheet name="short" sheetId="1" r:id="rId2"/>
+    <sheet name="uk" sheetId="5" r:id="rId3"/>
+    <sheet name="ca" sheetId="3" r:id="rId4"/>
+    <sheet name="all3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">short!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">us!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="331">
   <si>
     <t>Style</t>
   </si>
@@ -1016,6 +1019,12 @@
   </si>
   <si>
     <t>&lt;div&gt;Wash by hand separately with cold water. Only non-chlorine bleach if needed. Lay flat to dry. Warm iron if needed.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>RetailCA</t>
+  </si>
+  <si>
+    <t>ReatailUK</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1054,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1068,17 +1077,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1363,8 +1384,8 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A1:G93"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3592,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,111 +3653,6959 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D2" s="3">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:G93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="3">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="3">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="3">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="3">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="3">
+        <v>84</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3">
+        <v>99</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="3">
+        <v>84</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="3">
+        <v>99</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="3">
+        <v>69</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="3">
+        <v>136</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>129</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>108</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3">
+        <v>129</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3">
+        <v>99</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="3">
+        <v>136</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="3">
+        <v>124</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="3">
+        <v>234</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3">
+        <v>84</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3">
+        <v>124</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3">
+        <v>119</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3">
+        <v>94</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="3">
+        <v>94</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <v>94</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="3">
+        <v>84</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>94</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>69</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>94</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="3">
+        <v>94</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3">
+        <v>84</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3">
+        <v>94</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="3">
+        <v>99</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3">
+        <v>99</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="3">
+        <v>99</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3">
+        <v>69</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="3">
+        <v>69</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="3">
+        <v>69</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="3">
+        <v>69</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="3">
+        <v>69</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="3">
+        <v>74</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="3">
+        <v>62</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3">
+        <v>69</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="3">
+        <v>76</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>69</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>94</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="3">
+        <v>62</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="3">
+        <v>62</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="3">
+        <v>69</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="3">
+        <v>62</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3">
+        <v>62</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="3">
+        <v>69</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="3">
+        <v>62</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="3">
+        <v>62</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="3">
+        <v>62</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="3">
+        <v>62</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="3">
+        <v>62</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="3">
+        <v>62</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="3">
+        <v>62</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="3">
+        <v>69</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="3">
+        <v>62</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>46</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3">
+        <v>84</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3">
+        <v>49</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="3">
+        <v>49</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="3">
+        <v>69</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>69</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="3">
+        <v>46</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="3">
+        <v>59</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="3">
+        <v>54</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="3">
+        <v>49</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="3">
+        <v>49</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>108</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="3">
+        <v>99</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="3">
+        <v>99</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="3">
+        <v>69</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="3">
+        <v>42</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="G91" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="3">
+        <v>76</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="3">
+        <v>84</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3">
+        <v>139</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="3">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3">
         <v>99</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>99</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="3">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="3">
+        <v>89</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3">
+        <v>149</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3">
+        <v>139</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="3">
+        <v>118</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>109</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3">
+        <v>149</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3">
+        <v>149</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3">
+        <v>149</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3">
+        <v>118</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="3">
+        <v>139</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3">
+        <v>159</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="3">
+        <v>139</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="3">
+        <v>159</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="3">
+        <v>109</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="3">
+        <v>219</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>209</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>179</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3">
+        <v>209</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3">
+        <v>159</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="3">
+        <v>219</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="3">
+        <v>199</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="3">
+        <v>369</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3">
+        <v>139</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3">
+        <v>199</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3">
+        <v>189</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3">
+        <v>149</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="3">
+        <v>149</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <v>149</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="3">
+        <v>139</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>149</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>109</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>149</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>149</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="3">
+        <v>149</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3">
+        <v>139</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3">
+        <v>149</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="3">
+        <v>159</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3">
+        <v>159</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="3">
+        <v>159</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3">
+        <v>109</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="3">
+        <v>109</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="3">
+        <v>109</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="3">
+        <v>109</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="3">
+        <v>109</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="3">
+        <v>116</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="3">
+        <v>99</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3">
+        <v>109</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="3">
+        <v>118</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>109</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>149</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="3">
+        <v>99</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="3">
+        <v>99</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="3">
+        <v>109</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="3">
+        <v>99</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3">
+        <v>99</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="3">
+        <v>109</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="3">
+        <v>99</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="3">
+        <v>99</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="3">
+        <v>99</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="3">
+        <v>99</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="3">
+        <v>99</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="3">
+        <v>99</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="3">
+        <v>99</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="3">
+        <v>109</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="3">
+        <v>99</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>74</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3">
+        <v>139</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3">
+        <v>79</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="3">
+        <v>79</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="3">
+        <v>109</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>109</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="3">
+        <v>74</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="3">
+        <v>96</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="3">
+        <v>89</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="3">
+        <v>79</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="3">
+        <v>79</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>179</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="3">
+        <v>159</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="3">
+        <v>159</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="3">
+        <v>109</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="3">
+        <v>64</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="3">
+        <v>118</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F92" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="3">
+        <v>139</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F93" sqref="F2:F93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3">
+        <v>139</v>
+      </c>
+      <c r="F3" s="3">
+        <v>84</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="3">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="3">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3">
+        <v>99</v>
+      </c>
+      <c r="F5" s="3">
+        <v>62</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3">
+        <v>99</v>
+      </c>
+      <c r="F6" s="3">
+        <v>62</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="3">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="3">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3">
+        <v>149</v>
+      </c>
+      <c r="F10" s="3">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="3">
+        <v>114</v>
+      </c>
+      <c r="E13" s="3">
+        <v>139</v>
+      </c>
+      <c r="F13" s="3">
+        <v>84</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="3">
+        <v>99</v>
+      </c>
+      <c r="E14" s="3">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3">
+        <v>109</v>
+      </c>
+      <c r="F15" s="3">
+        <v>69</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3">
+        <v>124</v>
+      </c>
+      <c r="E16" s="3">
+        <v>149</v>
+      </c>
+      <c r="F16" s="3">
+        <v>94</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3">
+        <v>149</v>
+      </c>
+      <c r="F17" s="3">
+        <v>94</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="3">
+        <v>119</v>
+      </c>
+      <c r="E18" s="3">
+        <v>149</v>
+      </c>
+      <c r="F18" s="3">
+        <v>94</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3">
+        <v>118</v>
+      </c>
+      <c r="F19" s="3">
+        <v>76</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="3">
+        <v>112</v>
+      </c>
+      <c r="E20" s="3">
+        <v>139</v>
+      </c>
+      <c r="F20" s="3">
+        <v>84</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3">
+        <v>134</v>
+      </c>
+      <c r="E21" s="3">
+        <v>159</v>
+      </c>
+      <c r="F21" s="3">
+        <v>99</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="3">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3">
+        <v>139</v>
+      </c>
+      <c r="F22" s="3">
+        <v>84</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="3">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3">
+        <v>159</v>
+      </c>
+      <c r="F23" s="3">
+        <v>99</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="3">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3">
+        <v>109</v>
+      </c>
+      <c r="F24" s="3">
+        <v>69</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="3">
+        <v>184</v>
+      </c>
+      <c r="E25" s="3">
+        <v>219</v>
+      </c>
+      <c r="F25" s="3">
+        <v>136</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>174</v>
+      </c>
+      <c r="E26" s="3">
+        <v>209</v>
+      </c>
+      <c r="F26" s="3">
+        <v>129</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>144</v>
+      </c>
+      <c r="E27" s="3">
+        <v>179</v>
+      </c>
+      <c r="F27" s="3">
+        <v>108</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3">
+        <v>174</v>
+      </c>
+      <c r="E28" s="3">
+        <v>209</v>
+      </c>
+      <c r="F28" s="3">
+        <v>129</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3">
+        <v>129</v>
+      </c>
+      <c r="E29" s="3">
+        <v>159</v>
+      </c>
+      <c r="F29" s="3">
+        <v>99</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="3">
+        <v>184</v>
+      </c>
+      <c r="E30" s="3">
+        <v>219</v>
+      </c>
+      <c r="F30" s="3">
+        <v>136</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="3">
+        <v>164</v>
+      </c>
+      <c r="E31" s="3">
+        <v>199</v>
+      </c>
+      <c r="F31" s="3">
+        <v>124</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="3">
+        <v>299</v>
+      </c>
+      <c r="E32" s="3">
+        <v>369</v>
+      </c>
+      <c r="F32" s="3">
+        <v>234</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3">
+        <v>109</v>
+      </c>
+      <c r="E33" s="3">
+        <v>139</v>
+      </c>
+      <c r="F33" s="3">
+        <v>84</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3">
+        <v>159</v>
+      </c>
+      <c r="E34" s="3">
+        <v>199</v>
+      </c>
+      <c r="F34" s="3">
+        <v>124</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3">
+        <v>149</v>
+      </c>
+      <c r="E35" s="3">
+        <v>189</v>
+      </c>
+      <c r="F35" s="3">
+        <v>119</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3">
+        <v>124</v>
+      </c>
+      <c r="E36" s="3">
+        <v>149</v>
+      </c>
+      <c r="F36" s="3">
+        <v>94</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="3">
+        <v>124</v>
+      </c>
+      <c r="E37" s="3">
+        <v>149</v>
+      </c>
+      <c r="F37" s="3">
+        <v>94</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <v>124</v>
+      </c>
+      <c r="E38" s="3">
+        <v>149</v>
+      </c>
+      <c r="F38" s="3">
+        <v>94</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="3">
+        <v>114</v>
+      </c>
+      <c r="E39" s="3">
+        <v>139</v>
+      </c>
+      <c r="F39" s="3">
+        <v>84</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>124</v>
+      </c>
+      <c r="E40" s="3">
+        <v>149</v>
+      </c>
+      <c r="F40" s="3">
+        <v>94</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>99</v>
+      </c>
+      <c r="E41" s="3">
+        <v>109</v>
+      </c>
+      <c r="F41" s="3">
+        <v>69</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>129</v>
+      </c>
+      <c r="E42" s="3">
+        <v>149</v>
+      </c>
+      <c r="F42" s="3">
+        <v>94</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>129</v>
+      </c>
+      <c r="E43" s="3">
+        <v>149</v>
+      </c>
+      <c r="F43" s="3">
+        <v>94</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="3">
+        <v>129</v>
+      </c>
+      <c r="E44" s="3">
+        <v>149</v>
+      </c>
+      <c r="F44" s="3">
+        <v>94</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3">
+        <v>114</v>
+      </c>
+      <c r="E45" s="3">
+        <v>139</v>
+      </c>
+      <c r="F45" s="3">
+        <v>84</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3">
+        <v>129</v>
+      </c>
+      <c r="E46" s="3">
+        <v>149</v>
+      </c>
+      <c r="F46" s="3">
+        <v>94</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="3">
+        <v>139</v>
+      </c>
+      <c r="E47" s="3">
+        <v>159</v>
+      </c>
+      <c r="F47" s="3">
+        <v>99</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3">
+        <v>139</v>
+      </c>
+      <c r="E48" s="3">
+        <v>159</v>
+      </c>
+      <c r="F48" s="3">
+        <v>99</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="3">
+        <v>129</v>
+      </c>
+      <c r="E49" s="3">
+        <v>159</v>
+      </c>
+      <c r="F49" s="3">
+        <v>99</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3">
+        <v>92</v>
+      </c>
+      <c r="E50" s="3">
+        <v>109</v>
+      </c>
+      <c r="F50" s="3">
+        <v>69</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="3">
+        <v>92</v>
+      </c>
+      <c r="E51" s="3">
+        <v>109</v>
+      </c>
+      <c r="F51" s="3">
+        <v>69</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="3">
+        <v>92</v>
+      </c>
+      <c r="E52" s="3">
+        <v>109</v>
+      </c>
+      <c r="F52" s="3">
+        <v>69</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="3">
+        <v>92</v>
+      </c>
+      <c r="E53" s="3">
+        <v>109</v>
+      </c>
+      <c r="F53" s="3">
+        <v>69</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="3">
+        <v>92</v>
+      </c>
+      <c r="E54" s="3">
+        <v>109</v>
+      </c>
+      <c r="F54" s="3">
+        <v>69</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="3">
+        <v>99</v>
+      </c>
+      <c r="E55" s="3">
+        <v>116</v>
+      </c>
+      <c r="F55" s="3">
+        <v>74</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="3">
+        <v>82</v>
+      </c>
+      <c r="E56" s="3">
+        <v>99</v>
+      </c>
+      <c r="F56" s="3">
+        <v>62</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3">
+        <v>92</v>
+      </c>
+      <c r="E57" s="3">
+        <v>109</v>
+      </c>
+      <c r="F57" s="3">
+        <v>69</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="3">
+        <v>109</v>
+      </c>
+      <c r="E58" s="3">
+        <v>118</v>
+      </c>
+      <c r="F58" s="3">
+        <v>76</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>92</v>
+      </c>
+      <c r="E59" s="3">
+        <v>109</v>
+      </c>
+      <c r="F59" s="3">
+        <v>69</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>119</v>
+      </c>
+      <c r="E60" s="3">
+        <v>149</v>
+      </c>
+      <c r="F60" s="3">
+        <v>94</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="3">
+        <v>79</v>
+      </c>
+      <c r="E61" s="3">
+        <v>99</v>
+      </c>
+      <c r="F61" s="3">
+        <v>62</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="3">
+        <v>79</v>
+      </c>
+      <c r="E62" s="3">
+        <v>99</v>
+      </c>
+      <c r="F62" s="3">
+        <v>62</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="3">
+        <v>92</v>
+      </c>
+      <c r="E63" s="3">
+        <v>109</v>
+      </c>
+      <c r="F63" s="3">
+        <v>69</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="3">
+        <v>79</v>
+      </c>
+      <c r="E64" s="3">
+        <v>99</v>
+      </c>
+      <c r="F64" s="3">
+        <v>62</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3">
+        <v>79</v>
+      </c>
+      <c r="E65" s="3">
+        <v>99</v>
+      </c>
+      <c r="F65" s="3">
+        <v>62</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="3">
+        <v>92</v>
+      </c>
+      <c r="E66" s="3">
+        <v>109</v>
+      </c>
+      <c r="F66" s="3">
+        <v>69</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="3">
+        <v>79</v>
+      </c>
+      <c r="E67" s="3">
+        <v>99</v>
+      </c>
+      <c r="F67" s="3">
+        <v>62</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="3">
+        <v>79</v>
+      </c>
+      <c r="E68" s="3">
+        <v>99</v>
+      </c>
+      <c r="F68" s="3">
+        <v>62</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="3">
+        <v>82</v>
+      </c>
+      <c r="E69" s="3">
+        <v>99</v>
+      </c>
+      <c r="F69" s="3">
+        <v>62</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="3">
+        <v>82</v>
+      </c>
+      <c r="E70" s="3">
+        <v>99</v>
+      </c>
+      <c r="F70" s="3">
+        <v>62</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="3">
+        <v>79</v>
+      </c>
+      <c r="E71" s="3">
+        <v>99</v>
+      </c>
+      <c r="F71" s="3">
+        <v>62</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="3">
+        <v>82</v>
+      </c>
+      <c r="E72" s="3">
+        <v>99</v>
+      </c>
+      <c r="F72" s="3">
+        <v>62</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="3">
+        <v>79</v>
+      </c>
+      <c r="E73" s="3">
+        <v>99</v>
+      </c>
+      <c r="F73" s="3">
+        <v>62</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="3">
+        <v>89</v>
+      </c>
+      <c r="E74" s="3">
+        <v>109</v>
+      </c>
+      <c r="F74" s="3">
+        <v>69</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="3">
+        <v>84</v>
+      </c>
+      <c r="E75" s="3">
+        <v>99</v>
+      </c>
+      <c r="F75" s="3">
+        <v>62</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>62</v>
+      </c>
+      <c r="E76" s="3">
+        <v>74</v>
+      </c>
+      <c r="F76" s="3">
+        <v>46</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3">
+        <v>109</v>
+      </c>
+      <c r="E77" s="3">
+        <v>139</v>
+      </c>
+      <c r="F77" s="3">
+        <v>84</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3">
+        <v>66</v>
+      </c>
+      <c r="E78" s="3">
+        <v>79</v>
+      </c>
+      <c r="F78" s="3">
+        <v>49</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="3">
+        <v>69</v>
+      </c>
+      <c r="E79" s="3">
+        <v>79</v>
+      </c>
+      <c r="F79" s="3">
+        <v>49</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="3">
+        <v>89</v>
+      </c>
+      <c r="E80" s="3">
+        <v>109</v>
+      </c>
+      <c r="F80" s="3">
+        <v>69</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>89</v>
+      </c>
+      <c r="E81" s="3">
+        <v>109</v>
+      </c>
+      <c r="F81" s="3">
+        <v>69</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="3">
+        <v>62</v>
+      </c>
+      <c r="E82" s="3">
+        <v>74</v>
+      </c>
+      <c r="F82" s="3">
+        <v>46</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="3">
+        <v>76</v>
+      </c>
+      <c r="E83" s="3">
+        <v>96</v>
+      </c>
+      <c r="F83" s="3">
+        <v>59</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="3">
+        <v>72</v>
+      </c>
+      <c r="E84" s="3">
+        <v>89</v>
+      </c>
+      <c r="F84" s="3">
+        <v>54</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="3">
+        <v>69</v>
+      </c>
+      <c r="E85" s="3">
+        <v>79</v>
+      </c>
+      <c r="F85" s="3">
+        <v>49</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="3">
+        <v>69</v>
+      </c>
+      <c r="E86" s="3">
+        <v>79</v>
+      </c>
+      <c r="F86" s="3">
+        <v>49</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>144</v>
+      </c>
+      <c r="E87" s="3">
+        <v>179</v>
+      </c>
+      <c r="F87" s="3">
+        <v>108</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="3">
+        <v>132</v>
+      </c>
+      <c r="E88" s="3">
+        <v>159</v>
+      </c>
+      <c r="F88" s="3">
+        <v>99</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="3">
+        <v>134</v>
+      </c>
+      <c r="E89" s="3">
+        <v>159</v>
+      </c>
+      <c r="F89" s="3">
+        <v>99</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="3">
+        <v>99</v>
+      </c>
+      <c r="E90" s="3">
+        <v>109</v>
+      </c>
+      <c r="F90" s="3">
+        <v>69</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="3">
+        <v>54</v>
+      </c>
+      <c r="E91" s="3">
+        <v>64</v>
+      </c>
+      <c r="F91" s="3">
+        <v>42</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="3">
+        <v>99</v>
+      </c>
+      <c r="E92" s="3">
+        <v>118</v>
+      </c>
+      <c r="F92" s="3">
+        <v>76</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D93" s="3">
         <v>109</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E93" s="3">
+        <v>139</v>
+      </c>
+      <c r="F93" s="3">
+        <v>84</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>312</v>
       </c>
+      <c r="I93" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
